--- a/app/Licenciatura_em_Psicologia_Escolar_e_de_Necessidades_Educativas_Especiais_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Psicologia_Escolar_e_de_Necessidades_Educativas_Especiais_Pos_Laboral.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Maria Macuacua</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Catarina Gustavo Uamusse</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>Solteiro</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Joaquina Maforze Augusto</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>Amelia Carlos Djemo Savele</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100906550S</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t>Adelina Come</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110101748980B</t>
   </si>
   <si>
@@ -347,9 +332,6 @@
     <t>Ana Joao Nhamitambo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -515,9 +497,6 @@
     <t>Estela Magaia</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>Passaporte</t>
   </si>
   <si>
@@ -566,9 +545,6 @@
     <t>Terezinha Assumine</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>040100490728N</t>
   </si>
   <si>
@@ -768,9 +744,6 @@
   </si>
   <si>
     <t>Emelina Jose Jasse</t>
-  </si>
-  <si>
-    <t>Cidade de Inhambane</t>
   </si>
   <si>
     <t>110100576725C</t>
@@ -2168,7 +2141,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2184,7 +2157,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2200,7 +2173,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2216,7 +2189,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2232,7 +2205,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2247,9 +2220,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2257,7 +2228,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2268,7 +2239,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2277,7 +2248,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2289,7 +2260,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2393,7 +2364,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2436,7 +2407,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2763,7 +2734,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2779,7 +2750,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2795,7 +2766,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2811,7 +2782,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2827,7 +2798,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2842,9 +2813,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2852,7 +2821,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2863,7 +2832,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2872,7 +2841,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2884,7 +2853,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2892,7 +2861,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2988,7 +2957,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3031,7 +3000,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3358,7 +3327,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3374,7 +3343,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3390,7 +3359,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3406,7 +3375,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3422,7 +3391,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3437,9 +3406,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3447,7 +3414,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3458,7 +3425,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3467,7 +3434,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3479,7 +3446,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3487,7 +3454,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3583,7 +3550,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3626,7 +3593,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3953,7 +3920,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3969,7 +3936,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3985,7 +3952,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4001,7 +3968,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4017,7 +3984,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4032,9 +3999,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4042,7 +4007,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4053,7 +4018,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4062,7 +4027,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4074,7 +4039,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4082,7 +4047,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4178,7 +4143,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4221,7 +4186,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4548,7 +4513,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4564,7 +4529,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4580,7 +4545,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4596,7 +4561,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4612,7 +4577,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4627,9 +4592,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4637,7 +4600,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4648,7 +4611,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4657,7 +4620,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4669,7 +4632,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4677,7 +4640,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4773,7 +4736,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4816,7 +4779,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5143,7 +5106,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5159,7 +5122,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5175,7 +5138,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5191,7 +5154,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5207,7 +5170,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5222,9 +5185,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5232,7 +5193,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5243,7 +5204,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5252,7 +5213,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5264,7 +5225,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5272,7 +5233,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5368,7 +5329,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5411,7 +5372,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5738,7 +5699,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5754,7 +5715,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5770,7 +5731,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5786,7 +5747,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5802,7 +5763,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5817,9 +5778,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5827,7 +5786,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5838,7 +5797,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5847,7 +5806,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5859,7 +5818,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5867,7 +5826,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5963,7 +5922,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6006,7 +5965,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6333,7 +6292,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6349,7 +6308,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6365,7 +6324,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6381,7 +6340,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6397,7 +6356,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6412,9 +6371,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6422,7 +6379,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6433,7 +6390,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6442,7 +6399,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6454,7 +6411,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6462,7 +6419,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6558,7 +6515,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6601,7 +6558,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6928,7 +6885,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6944,7 +6901,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6960,7 +6917,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6976,7 +6933,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6992,7 +6949,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7007,9 +6964,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7017,7 +6972,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7028,7 +6983,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7037,7 +6992,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7049,7 +7004,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7057,7 +7012,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7153,7 +7108,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7196,7 +7151,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7523,7 +7478,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7539,7 +7494,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7555,7 +7510,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7571,7 +7526,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7587,7 +7542,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7602,9 +7557,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7612,7 +7565,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7623,7 +7576,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7632,7 +7585,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7644,7 +7597,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7652,7 +7605,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7748,7 +7701,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7791,7 +7744,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8197,9 +8150,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8207,7 +8158,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8218,7 +8169,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8227,7 +8178,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8239,7 +8190,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8247,7 +8198,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8343,7 +8294,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8386,7 +8337,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8713,7 +8664,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8729,7 +8680,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8745,7 +8696,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8761,7 +8712,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8777,7 +8728,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8792,9 +8743,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8802,7 +8751,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8813,7 +8762,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8822,7 +8771,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8834,7 +8783,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8842,7 +8791,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8938,7 +8887,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8981,7 +8930,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9308,7 +9257,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9324,7 +9273,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9340,7 +9289,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9356,7 +9305,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9372,7 +9321,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9387,9 +9336,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9397,7 +9344,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9408,7 +9355,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9417,7 +9364,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9429,7 +9376,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9437,7 +9384,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9533,7 +9480,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9576,7 +9523,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9903,7 +9850,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9919,7 +9866,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9935,7 +9882,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9951,7 +9898,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9967,7 +9914,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9982,9 +9929,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9992,7 +9937,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10003,7 +9948,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10012,7 +9957,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10024,7 +9969,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10032,7 +9977,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10128,7 +10073,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10171,7 +10116,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10498,7 +10443,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10514,7 +10459,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10530,7 +10475,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10546,7 +10491,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10562,7 +10507,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10577,9 +10522,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10587,7 +10530,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10598,7 +10541,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10607,7 +10550,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10619,7 +10562,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10627,7 +10570,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10723,7 +10666,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10766,7 +10709,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11093,7 +11036,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11109,7 +11052,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11125,7 +11068,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11141,7 +11084,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11157,7 +11100,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11172,9 +11115,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11182,7 +11123,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11193,7 +11134,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11202,7 +11143,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11214,7 +11155,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11222,7 +11163,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11318,7 +11259,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11361,7 +11302,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11688,7 +11629,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11704,7 +11645,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11720,7 +11661,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11736,7 +11677,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11752,7 +11693,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11767,9 +11708,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>240</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11777,7 +11716,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11788,7 +11727,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11797,7 +11736,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11809,7 +11748,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11817,7 +11756,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11913,7 +11852,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11956,7 +11895,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12283,7 +12222,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12299,7 +12238,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12315,7 +12254,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12331,7 +12270,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12347,7 +12286,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12362,9 +12301,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12372,7 +12309,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12383,7 +12320,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12392,7 +12329,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12404,7 +12341,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12412,7 +12349,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12508,7 +12445,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12551,7 +12488,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12878,7 +12815,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12894,7 +12831,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12910,7 +12847,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12926,7 +12863,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12942,7 +12879,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12957,9 +12894,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12967,7 +12902,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12978,7 +12913,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12987,7 +12922,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12999,7 +12934,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13007,7 +12942,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13103,7 +13038,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13146,7 +13081,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13473,7 +13408,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13489,7 +13424,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13505,7 +13440,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13521,7 +13456,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13537,7 +13472,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13552,9 +13487,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13562,7 +13495,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13573,7 +13506,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13582,7 +13515,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13594,7 +13527,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13602,7 +13535,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13698,7 +13631,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13741,7 +13674,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14068,7 +14001,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14084,7 +14017,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14100,7 +14033,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14116,7 +14049,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14132,7 +14065,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14147,9 +14080,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14157,7 +14088,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14168,7 +14099,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14177,7 +14108,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14189,7 +14120,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14197,7 +14128,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14293,7 +14224,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14336,7 +14267,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14679,7 +14610,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14695,7 +14626,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14711,7 +14642,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14727,7 +14658,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14742,9 +14673,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14752,7 +14681,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14763,7 +14692,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14772,7 +14701,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14784,7 +14713,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14792,7 +14721,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14888,7 +14817,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14931,7 +14860,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15258,7 +15187,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15274,7 +15203,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15290,7 +15219,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15306,7 +15235,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15322,7 +15251,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15337,9 +15266,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15347,7 +15274,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15358,7 +15285,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15367,7 +15294,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15379,7 +15306,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15387,7 +15314,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15483,7 +15410,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15526,7 +15453,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15853,7 +15780,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15869,7 +15796,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15885,7 +15812,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15901,7 +15828,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15917,7 +15844,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15932,9 +15859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15942,7 +15867,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15953,7 +15878,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15962,7 +15887,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15974,7 +15899,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15982,7 +15907,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16078,7 +16003,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16121,7 +16046,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16504,7 +16429,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16520,7 +16445,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16536,7 +16461,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16552,7 +16477,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16568,7 +16493,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16583,9 +16508,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16593,7 +16516,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16604,7 +16527,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16613,7 +16536,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16625,7 +16548,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16633,7 +16556,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16729,7 +16652,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16772,7 +16695,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17099,7 +17022,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17115,7 +17038,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17131,7 +17054,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17147,7 +17070,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17163,7 +17086,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17178,9 +17101,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17188,7 +17109,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17199,7 +17120,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17208,7 +17129,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17220,7 +17141,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17228,7 +17149,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17324,7 +17245,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17367,7 +17288,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17694,7 +17615,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17710,7 +17631,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17726,7 +17647,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17742,7 +17663,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17758,7 +17679,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17773,9 +17694,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17783,7 +17702,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17794,7 +17713,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17803,7 +17722,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17815,7 +17734,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17823,7 +17742,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17919,7 +17838,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17962,7 +17881,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18289,7 +18208,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18305,7 +18224,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18321,7 +18240,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18337,7 +18256,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18353,7 +18272,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18368,9 +18287,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18378,7 +18295,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18389,7 +18306,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18398,7 +18315,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18410,7 +18327,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18418,7 +18335,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18514,7 +18431,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18557,7 +18474,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18884,7 +18801,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18900,7 +18817,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18916,7 +18833,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18932,7 +18849,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18948,7 +18865,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18963,9 +18880,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18973,7 +18888,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18984,7 +18899,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18993,7 +18908,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19005,7 +18920,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19013,7 +18928,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19109,7 +19024,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19152,7 +19067,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19479,7 +19394,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19495,7 +19410,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19511,7 +19426,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19527,7 +19442,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19543,7 +19458,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19558,9 +19473,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19568,7 +19481,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19579,7 +19492,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19588,7 +19501,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19600,7 +19513,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19608,7 +19521,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19704,7 +19617,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19747,7 +19660,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
